--- a/AREASjson.xlsx
+++ b/AREASjson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drive\cfro-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EF963E9-D0C6-4D72-BB20-4420D03DBD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F3F856-002E-4409-B98A-21651811FD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22764" yWindow="924" windowWidth="21636" windowHeight="11316" xr2:uid="{9623E450-637A-4EBF-810A-661CC2B1D51C}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{9623E450-637A-4EBF-810A-661CC2B1D51C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>id</t>
   </si>
@@ -53,9 +53,6 @@
     <t>icon</t>
   </si>
   <si>
-    <t>color-icon</t>
-  </si>
-  <si>
     <t>Desings</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>fa-solid fa-compass-drafting</t>
   </si>
   <si>
-    <t>red</t>
-  </si>
-  <si>
     <t>Environmental</t>
   </si>
   <si>
@@ -83,9 +77,6 @@
     <t>fa-solid fa-seedling</t>
   </si>
   <si>
-    <t>green</t>
-  </si>
-  <si>
     <t>Social</t>
   </si>
   <si>
@@ -210,6 +201,54 @@
   </si>
   <si>
     <t>fa-solid fa-trowel-bricks</t>
+  </si>
+  <si>
+    <t>text-success</t>
+  </si>
+  <si>
+    <t>text-danger</t>
+  </si>
+  <si>
+    <t>text-pink</t>
+  </si>
+  <si>
+    <t>text-primary</t>
+  </si>
+  <si>
+    <t>text-warning</t>
+  </si>
+  <si>
+    <t>text-info</t>
+  </si>
+  <si>
+    <t>text-teal</t>
+  </si>
+  <si>
+    <t>text-orange-live</t>
+  </si>
+  <si>
+    <t>text-green-lime</t>
+  </si>
+  <si>
+    <t>text-purple</t>
+  </si>
+  <si>
+    <t>text-cyan</t>
+  </si>
+  <si>
+    <t>text-blue-king</t>
+  </si>
+  <si>
+    <t>text-red-deep</t>
+  </si>
+  <si>
+    <t>text-light</t>
+  </si>
+  <si>
+    <t>text-wine</t>
+  </si>
+  <si>
+    <t>coloricon</t>
   </si>
 </sst>
 </file>
@@ -563,15 +602,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD84C4C2-6C1C-4EFD-A824-A81EE3FA2A2A}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -591,7 +632,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -599,19 +640,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -619,19 +660,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -639,16 +680,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -656,16 +700,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
+      <c r="F5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -673,16 +720,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
+      <c r="F6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -690,16 +740,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
+      <c r="F7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -707,16 +760,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -724,16 +780,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -741,16 +800,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -758,16 +820,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -775,16 +840,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -792,16 +860,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -809,16 +880,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -826,16 +900,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -843,16 +920,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/AREASjson.xlsx
+++ b/AREASjson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drive\cfro-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F3F856-002E-4409-B98A-21651811FD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42A8869-4C59-4828-9896-1DEF37C284B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{9623E450-637A-4EBF-810A-661CC2B1D51C}"/>
+    <workbookView xWindow="21045" yWindow="0" windowWidth="7860" windowHeight="15585" xr2:uid="{9623E450-637A-4EBF-810A-661CC2B1D51C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
   <si>
     <t>id</t>
   </si>
@@ -194,61 +194,46 @@
     <t>fa-solid fa-diagram-project</t>
   </si>
   <si>
-    <t>Maintenance and Operations</t>
-  </si>
-  <si>
     <t>Operaciones y Mantenimiento</t>
   </si>
   <si>
     <t>fa-solid fa-trowel-bricks</t>
   </si>
   <si>
-    <t>text-success</t>
-  </si>
-  <si>
-    <t>text-danger</t>
-  </si>
-  <si>
-    <t>text-pink</t>
-  </si>
-  <si>
-    <t>text-primary</t>
-  </si>
-  <si>
-    <t>text-warning</t>
-  </si>
-  <si>
-    <t>text-info</t>
-  </si>
-  <si>
-    <t>text-teal</t>
-  </si>
-  <si>
-    <t>text-orange-live</t>
-  </si>
-  <si>
-    <t>text-green-lime</t>
-  </si>
-  <si>
-    <t>text-purple</t>
-  </si>
-  <si>
-    <t>text-cyan</t>
-  </si>
-  <si>
-    <t>text-blue-king</t>
-  </si>
-  <si>
-    <t>text-red-deep</t>
-  </si>
-  <si>
-    <t>text-light</t>
-  </si>
-  <si>
-    <t>text-wine</t>
-  </si>
-  <si>
     <t>coloricon</t>
+  </si>
+  <si>
+    <t>danger</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>cyan</t>
+  </si>
+  <si>
+    <t>blue-king</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>wine</t>
+  </si>
+  <si>
+    <t>Operations</t>
   </si>
 </sst>
 </file>
@@ -602,7 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD84C4C2-6C1C-4EFD-A824-A81EE3FA2A2A}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -632,7 +617,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -652,7 +637,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -672,7 +657,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -712,7 +697,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -732,7 +717,7 @@
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -752,7 +737,7 @@
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -772,7 +757,7 @@
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -792,7 +777,7 @@
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -812,7 +797,7 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -832,7 +817,7 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -852,7 +837,7 @@
         <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -872,7 +857,7 @@
         <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -892,7 +877,7 @@
         <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -912,7 +897,7 @@
         <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -920,19 +905,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
         <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
       </c>
       <c r="D16" t="s">
         <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/AREASjson.xlsx
+++ b/AREASjson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drive\cfro-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42A8869-4C59-4828-9896-1DEF37C284B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95239372-F232-460E-BDE6-E338634047CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21045" yWindow="0" windowWidth="7860" windowHeight="15585" xr2:uid="{9623E450-637A-4EBF-810A-661CC2B1D51C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9623E450-637A-4EBF-810A-661CC2B1D51C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="94">
   <si>
     <t>id</t>
   </si>
@@ -194,9 +194,6 @@
     <t>fa-solid fa-diagram-project</t>
   </si>
   <si>
-    <t>Operaciones y Mantenimiento</t>
-  </si>
-  <si>
     <t>fa-solid fa-trowel-bricks</t>
   </si>
   <si>
@@ -234,6 +231,93 @@
   </si>
   <si>
     <t>Operations</t>
+  </si>
+  <si>
+    <t>Operaciones</t>
+  </si>
+  <si>
+    <t>data_dash_1</t>
+  </si>
+  <si>
+    <t>value_1</t>
+  </si>
+  <si>
+    <t>data_dash_2</t>
+  </si>
+  <si>
+    <t>value_2</t>
+  </si>
+  <si>
+    <t>Delivered</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>Interferences</t>
+  </si>
+  <si>
+    <t>Licences</t>
+  </si>
+  <si>
+    <t>Received</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Construccion</t>
+  </si>
+  <si>
+    <t>Built</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>Railways</t>
+  </si>
+  <si>
+    <t>Km</t>
+  </si>
+  <si>
+    <t>Composers</t>
+  </si>
+  <si>
+    <t>Achived</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Executed</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Advance</t>
+  </si>
+  <si>
+    <t>Areas</t>
+  </si>
+  <si>
+    <t>Tramits</t>
+  </si>
+  <si>
+    <t>Socializations</t>
   </si>
 </sst>
 </file>
@@ -585,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD84C4C2-6C1C-4EFD-A824-A81EE3FA2A2A}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,9 +682,11 @@
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -617,10 +703,28 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -637,10 +741,25 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -657,10 +776,25 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -677,10 +811,25 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -699,8 +848,23 @@
       <c r="F5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5">
+        <v>150</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -717,10 +881,25 @@
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6">
+        <v>60</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -737,10 +916,25 @@
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7">
+        <v>200</v>
+      </c>
+      <c r="J7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -759,8 +953,26 @@
       <c r="F8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8">
+        <v>40</v>
+      </c>
+      <c r="L8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -779,8 +991,26 @@
       <c r="F9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9">
+        <v>40</v>
+      </c>
+      <c r="L9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -799,8 +1029,26 @@
       <c r="F10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10">
+        <v>20</v>
+      </c>
+      <c r="L10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -817,10 +1065,28 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -837,10 +1103,25 @@
         <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="G12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -857,10 +1138,28 @@
         <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13">
+        <v>10000000</v>
+      </c>
+      <c r="J13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13">
+        <v>20000000</v>
+      </c>
+      <c r="L13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -879,8 +1178,23 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -897,27 +1211,63 @@
         <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="G15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+      <c r="J15" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15">
+        <v>90</v>
+      </c>
+      <c r="L15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
         <v>65</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
       </c>
       <c r="D16" t="s">
         <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="G16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16">
+        <v>30</v>
+      </c>
+      <c r="L16" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/AREASjson.xlsx
+++ b/AREASjson.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drive\cfro-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95239372-F232-460E-BDE6-E338634047CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AF46AF-E2A0-49AB-9B84-7AFBB52CCE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9623E450-637A-4EBF-810A-661CC2B1D51C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="101">
   <si>
     <t>id</t>
   </si>
@@ -209,9 +209,6 @@
     <t>pink</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>info</t>
   </si>
   <si>
@@ -318,6 +315,30 @@
   </si>
   <si>
     <t>Socializations</t>
+  </si>
+  <si>
+    <t>sectionInfo</t>
+  </si>
+  <si>
+    <t>spec</t>
+  </si>
+  <si>
+    <t>Issues</t>
+  </si>
+  <si>
+    <t>Stations</t>
+  </si>
+  <si>
+    <t>Estaciones</t>
+  </si>
+  <si>
+    <t>gray-light</t>
+  </si>
+  <si>
+    <t>fa-solid fa-building-wheat</t>
+  </si>
+  <si>
+    <t>Station</t>
   </si>
 </sst>
 </file>
@@ -373,9 +394,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -413,7 +434,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -519,7 +540,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -661,7 +682,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -669,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD84C4C2-6C1C-4EFD-A824-A81EE3FA2A2A}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +707,7 @@
     <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -706,25 +727,31 @@
         <v>53</v>
       </c>
       <c r="G1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" t="s">
-        <v>69</v>
-      </c>
       <c r="L1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="M1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -747,19 +774,25 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I2">
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -779,22 +812,28 @@
         <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I3">
         <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -814,22 +853,28 @@
         <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I4">
         <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -849,22 +894,28 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I5">
         <v>150</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -881,25 +932,31 @@
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I6">
         <v>60</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K6">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -916,25 +973,31 @@
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I7">
         <v>200</v>
       </c>
       <c r="J7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K7">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -954,25 +1017,31 @@
         <v>18</v>
       </c>
       <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
         <v>77</v>
-      </c>
-      <c r="H8" t="s">
-        <v>78</v>
       </c>
       <c r="I8">
         <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K8">
         <v>40</v>
       </c>
       <c r="L8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -992,25 +1061,31 @@
         <v>32</v>
       </c>
       <c r="G9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" t="s">
         <v>77</v>
-      </c>
-      <c r="H9" t="s">
-        <v>78</v>
       </c>
       <c r="I9">
         <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K9">
         <v>40</v>
       </c>
       <c r="L9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1030,25 +1105,31 @@
         <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I10">
         <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K10">
         <v>20</v>
       </c>
       <c r="L10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1065,28 +1146,34 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K11">
         <v>4</v>
       </c>
       <c r="L11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1103,25 +1190,31 @@
         <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" t="s">
         <v>83</v>
-      </c>
-      <c r="H12" t="s">
-        <v>84</v>
       </c>
       <c r="I12">
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1138,28 +1231,34 @@
         <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I13">
         <v>10000000</v>
       </c>
       <c r="J13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K13">
         <v>20000000</v>
       </c>
       <c r="L13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1179,22 +1278,28 @@
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I14">
         <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1211,36 +1316,42 @@
         <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I15">
         <v>10</v>
       </c>
       <c r="J15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K15">
         <v>90</v>
       </c>
       <c r="L15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
         <v>64</v>
-      </c>
-      <c r="C16" t="s">
-        <v>65</v>
       </c>
       <c r="D16" t="s">
         <v>29</v>
@@ -1249,25 +1360,72 @@
         <v>52</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I16">
         <v>10</v>
       </c>
       <c r="J16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K16">
         <v>30</v>
       </c>
       <c r="L16" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17">
+        <v>8</v>
+      </c>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
